--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UVa\Classes\Semester 6\CS 4501\Project 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samantha\PARTY\6th Semester\CS4501\rubiks-scanner\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,9 +35,6 @@
     <t>Event</t>
   </si>
   <si>
-    <t>Round</t>
-  </si>
-  <si>
     <t>Minute</t>
   </si>
   <si>
@@ -47,16 +44,19 @@
     <t>Milisecond</t>
   </si>
   <si>
-    <t>Comp</t>
+    <t xml:space="preserve">      Comp</t>
   </si>
   <si>
-    <t>Judge</t>
+    <t xml:space="preserve">     Judge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Round</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -146,19 +146,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -238,11 +225,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -251,49 +277,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,203 +653,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M12"/>
+  <dimension ref="B1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16" width="7.140625" customWidth="1"/>
+    <col min="1" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="18" width="3.5546875" customWidth="1"/>
+    <col min="19" max="22" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17"/>
-      <c r="C2" s="7" t="s">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16"/>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="20"/>
-    </row>
-    <row r="3" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="S2" s="19"/>
+    </row>
+    <row r="3" spans="2:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
-      <c r="C4" s="11" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="2:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8"/>
+      <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="G4" s="11" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
-      <c r="C6" s="22" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="2:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="8"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="21"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="2:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="8"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="23"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="2:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="8"/>
+      <c r="C7" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="21" t="s">
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="13" t="s">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14">
+      <c r="R7" s="12"/>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="2:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="13">
         <v>1</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14">
-        <v>2</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14">
-        <v>3</v>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" spans="2:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="13">
+        <v>2</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14">
-        <v>4</v>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="2:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="13">
+        <v>3</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14">
-        <v>5</v>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="2:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="13">
+        <v>4</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="2:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="19"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="2:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="13">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="2:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
